--- a/Phase 3 usage.xlsx
+++ b/Phase 3 usage.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E1231495\Desktop\coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Documents\Code\excelOrganizer\excelOrganizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661D73F9-7560-441C-954F-B828725C247B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="29400" yWindow="720" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phase III with usage" sheetId="1" r:id="rId1"/>
@@ -44,9 +45,6 @@
     <t>Current carbon block description</t>
   </si>
   <si>
-    <t>New carbon block number</t>
-  </si>
-  <si>
     <t>New carbon block description</t>
   </si>
   <si>
@@ -1098,12 +1096,15 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>new carbon block part number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1201,7 +1202,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1318,11 +1319,14 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1599,16 +1603,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I114" sqref="I114"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1622,7 @@
     <col min="3" max="3" width="31.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -1645,55 +1649,55 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="12">
         <v>1238</v>
@@ -1707,31 +1711,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="H3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="12">
         <v>1377</v>
@@ -1745,31 +1749,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="12">
         <v>2557</v>
@@ -1783,31 +1787,31 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="12">
         <v>3155</v>
@@ -1821,31 +1825,31 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>45</v>
-      </c>
       <c r="I6" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="18">
         <v>0</v>
@@ -1857,31 +1861,31 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="D7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="H7" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="18">
         <v>112</v>
@@ -1893,31 +1897,31 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="12">
         <v>520</v>
@@ -1932,28 +1936,28 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="D9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="H9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="12">
         <v>6979</v>
@@ -1968,28 +1972,28 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="D10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="H10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" s="12">
         <v>532</v>
@@ -2003,31 +2007,31 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="12">
         <v>4366</v>
@@ -2042,28 +2046,28 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="D12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="G12" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="12">
         <v>4849.5</v>
@@ -2078,28 +2082,28 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="D13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="G13" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="12">
         <v>173</v>
@@ -2113,31 +2117,31 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="G14" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>76</v>
-      </c>
       <c r="H14" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" s="18">
         <v>1099</v>
@@ -2152,28 +2156,28 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="D15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="F15" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="G15" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>76</v>
-      </c>
       <c r="H15" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="18">
         <v>179</v>
@@ -2187,31 +2191,31 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="G16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>85</v>
-      </c>
       <c r="H16" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="18">
         <v>6683.6668</v>
@@ -2225,31 +2229,31 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="D17" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="G17" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>85</v>
-      </c>
       <c r="H17" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" s="18">
         <v>394</v>
@@ -2264,28 +2268,28 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="F18" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="G18" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="H18" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="18">
         <v>11364.0003</v>
@@ -2299,31 +2303,31 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>97</v>
-      </c>
       <c r="D19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="G19" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="H19" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="18">
         <v>4254</v>
@@ -2338,28 +2342,28 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>99</v>
-      </c>
       <c r="D20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="F20" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="G20" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="H20" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" s="18">
         <v>11610</v>
@@ -2373,31 +2377,31 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>102</v>
-      </c>
       <c r="D21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="F21" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="G21" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="H21" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" s="18">
         <v>4319</v>
@@ -2412,28 +2416,28 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>104</v>
-      </c>
       <c r="D22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="F22" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="G22" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="H22" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="18">
         <v>529</v>
@@ -2448,28 +2452,28 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="H23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="12">
         <v>18325</v>
@@ -2483,31 +2487,31 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="D24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="H24" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24" s="12">
         <v>43</v>
@@ -2521,27 +2525,27 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="C25" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>116</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>117</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J25" s="26">
         <v>189</v>
@@ -2556,24 +2560,24 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>120</v>
-      </c>
       <c r="D26" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" s="26">
         <v>586</v>
@@ -2588,24 +2592,24 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>122</v>
-      </c>
       <c r="D27" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J27" s="26">
         <v>0</v>
@@ -2619,27 +2623,27 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="C28" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>126</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J28" s="26">
         <v>1158</v>
@@ -2654,24 +2658,24 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>130</v>
-      </c>
       <c r="D29" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J29" s="26">
         <v>1973</v>
@@ -2686,24 +2690,24 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>132</v>
-      </c>
       <c r="D30" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J30" s="26">
         <v>89.666799999999995</v>
@@ -2717,27 +2721,27 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="C31" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>135</v>
-      </c>
       <c r="D31" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J31" s="26">
         <v>3814</v>
@@ -2752,24 +2756,24 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>137</v>
-      </c>
       <c r="D32" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J32" s="26">
         <v>13541</v>
@@ -2784,24 +2788,24 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>139</v>
-      </c>
       <c r="D33" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G33" s="25"/>
       <c r="H33" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J33" s="26">
         <v>1222.8334</v>
@@ -2815,27 +2819,27 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="C34" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="D34" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G34" s="32"/>
       <c r="H34" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J34" s="33">
         <v>0</v>
@@ -2850,24 +2854,24 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="31" t="s">
-        <v>144</v>
-      </c>
       <c r="D35" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J35" s="33">
         <v>0</v>
@@ -2882,24 +2886,24 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="D36" s="25" t="s">
         <v>146</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>147</v>
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G36" s="25"/>
       <c r="H36" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J36" s="26">
         <v>1556</v>
@@ -2913,27 +2917,27 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="C37" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>152</v>
-      </c>
       <c r="D37" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G37" s="25"/>
       <c r="H37" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J37" s="26">
         <v>2333</v>
@@ -2947,27 +2951,27 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="C38" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>155</v>
-      </c>
       <c r="D38" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G38" s="32"/>
       <c r="H38" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J38" s="33">
         <v>0</v>
@@ -2982,24 +2986,24 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>157</v>
-      </c>
       <c r="D39" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G39" s="32"/>
       <c r="H39" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J39" s="33">
         <v>0</v>
@@ -3013,27 +3017,27 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>160</v>
-      </c>
       <c r="D40" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J40" s="12">
         <v>2296</v>
@@ -3047,27 +3051,27 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J41" s="12">
         <v>670</v>
@@ -3081,27 +3085,27 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="D42" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J42" s="12">
         <v>3920</v>
@@ -3115,25 +3119,25 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="C43" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="D43" s="32" t="s">
         <v>173</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>174</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J43" s="33">
         <v>24</v>
@@ -3147,27 +3151,27 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="C44" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="D44" s="32" t="s">
         <v>177</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>178</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J44" s="33">
         <v>8370.8333000000002</v>
@@ -3181,27 +3185,27 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="C45" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>182</v>
-      </c>
       <c r="D45" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J45" s="33">
         <v>3967.5</v>
@@ -3216,24 +3220,24 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>184</v>
-      </c>
       <c r="D46" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E46" s="36"/>
       <c r="F46" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J46" s="33">
         <v>8246</v>
@@ -3248,24 +3252,24 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="D47" s="25" t="s">
         <v>186</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>187</v>
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J47" s="26">
         <v>1726</v>
@@ -3280,24 +3284,24 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="24" t="s">
-        <v>189</v>
-      </c>
       <c r="D48" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E48" s="25"/>
       <c r="F48" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J48" s="26">
         <v>93</v>
@@ -3311,27 +3315,27 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="C49" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="24" t="s">
-        <v>192</v>
-      </c>
       <c r="D49" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J49" s="26">
         <v>4095</v>
@@ -3345,27 +3349,27 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="C50" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="D50" s="32" t="s">
         <v>195</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G50" s="32"/>
       <c r="H50" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J50" s="33">
         <v>294</v>
@@ -3379,27 +3383,27 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="C51" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="D51" s="32" t="s">
         <v>200</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>201</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G51" s="32"/>
       <c r="H51" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J51" s="33">
         <v>139</v>
@@ -3414,24 +3418,24 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
       <c r="B52" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="D52" s="32" t="s">
         <v>204</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>205</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G52" s="32"/>
       <c r="H52" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J52" s="33">
         <v>6242</v>
@@ -3445,27 +3449,27 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="C53" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="31" t="s">
-        <v>209</v>
-      </c>
       <c r="D53" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G53" s="32"/>
       <c r="H53" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I53" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J53" s="33">
         <v>34799</v>
@@ -3480,24 +3484,24 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
       <c r="B54" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="C54" s="31" t="s">
-        <v>211</v>
-      </c>
       <c r="D54" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G54" s="32"/>
       <c r="H54" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J54" s="33">
         <v>26992</v>
@@ -3512,22 +3516,22 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="D55" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J55" s="12">
         <v>20996</v>
@@ -3541,25 +3545,25 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>217</v>
-      </c>
       <c r="D56" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J56" s="12">
         <v>0</v>
@@ -3574,22 +3578,22 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="37"/>
       <c r="B57" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="D57" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>220</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J57" s="18">
         <v>46155</v>
@@ -3603,25 +3607,25 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="C58" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>224</v>
-      </c>
       <c r="D58" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
       <c r="H58" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J58" s="18">
         <v>0</v>
@@ -3636,22 +3640,22 @@
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="37"/>
       <c r="B59" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>226</v>
-      </c>
       <c r="D59" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
       <c r="H59" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J59" s="18">
         <v>77</v>
@@ -3665,25 +3669,25 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="C60" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="D60" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>230</v>
       </c>
       <c r="E60" s="32"/>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J60" s="33">
         <v>5195</v>
@@ -3698,22 +3702,22 @@
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
       <c r="B61" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="31" t="s">
-        <v>232</v>
-      </c>
       <c r="D61" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J61" s="33">
         <v>181</v>
@@ -3727,25 +3731,25 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="C62" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="D62" s="32" t="s">
         <v>235</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>236</v>
       </c>
       <c r="E62" s="32"/>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
       <c r="H62" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J62" s="33">
         <v>5045</v>
@@ -3760,22 +3764,22 @@
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
       <c r="B63" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="31" t="s">
-        <v>238</v>
-      </c>
       <c r="D63" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
       <c r="H63" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I63" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J63" s="33">
         <v>542</v>
@@ -3789,25 +3793,25 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="D64" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J64" s="12">
         <v>2230</v>
@@ -3821,25 +3825,25 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="D65" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J65" s="12">
         <v>10035</v>
@@ -3853,25 +3857,25 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="C66" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="D66" s="32" t="s">
         <v>249</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>250</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
       <c r="H66" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I66" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J66" s="33">
         <v>674</v>
@@ -3885,25 +3889,25 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="C67" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="D67" s="36" t="s">
         <v>253</v>
-      </c>
-      <c r="D67" s="36" t="s">
-        <v>254</v>
       </c>
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
       <c r="H67" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I67" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J67" s="33">
         <v>91</v>
@@ -3918,22 +3922,22 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
       <c r="B68" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="C68" s="31" t="s">
-        <v>256</v>
-      </c>
       <c r="D68" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
       <c r="H68" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I68" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J68" s="33">
         <v>179</v>
@@ -3948,22 +3952,22 @@
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="B69" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="D69" s="25" t="s">
         <v>258</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>259</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J69" s="26">
         <v>38273</v>
@@ -3977,25 +3981,25 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B70" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="C70" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C70" s="24" t="s">
-        <v>262</v>
-      </c>
       <c r="D70" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J70" s="26">
         <v>204</v>
@@ -4010,22 +4014,22 @@
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="29"/>
       <c r="B71" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C71" s="31" t="s">
-        <v>264</v>
-      </c>
       <c r="D71" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
       <c r="H71" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I71" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J71" s="33">
         <v>0</v>
@@ -4039,25 +4043,25 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="C72" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="C72" s="31" t="s">
-        <v>267</v>
-      </c>
       <c r="D72" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
       <c r="H72" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I72" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J72" s="33">
         <v>0</v>
@@ -4072,22 +4076,22 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C73" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="D73" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J73" s="18">
         <v>57863</v>
@@ -4101,25 +4105,25 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="C74" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C74" s="16" t="s">
-        <v>273</v>
-      </c>
       <c r="D74" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J74" s="18">
         <v>109</v>
@@ -4134,22 +4138,22 @@
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="29"/>
       <c r="B75" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="C75" s="31" t="s">
-        <v>275</v>
-      </c>
       <c r="D75" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E75" s="32"/>
       <c r="F75" s="32"/>
       <c r="G75" s="32"/>
       <c r="H75" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I75" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J75" s="33">
         <v>365</v>
@@ -4164,22 +4168,22 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="29"/>
       <c r="B76" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="C76" s="31" t="s">
-        <v>277</v>
-      </c>
       <c r="D76" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E76" s="32"/>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
       <c r="H76" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I76" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J76" s="33">
         <v>0</v>
@@ -4193,25 +4197,25 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B77" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="C77" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="C77" s="31" t="s">
-        <v>280</v>
-      </c>
       <c r="D77" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
       <c r="G77" s="32"/>
       <c r="H77" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I77" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J77" s="33">
         <v>3560.0001999999999</v>
@@ -4226,22 +4230,22 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="D78" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>283</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="17"/>
       <c r="H78" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J78" s="18">
         <v>49751</v>
@@ -4255,25 +4259,25 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C79" s="16" t="s">
-        <v>286</v>
-      </c>
       <c r="D79" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
       <c r="H79" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J79" s="18">
         <v>1674</v>
@@ -4288,22 +4292,22 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C80" s="16" t="s">
-        <v>288</v>
-      </c>
       <c r="D80" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
       <c r="H80" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J80" s="18">
         <v>0</v>
@@ -4318,22 +4322,22 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C81" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C81" s="16" t="s">
-        <v>290</v>
-      </c>
       <c r="D81" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J81" s="18">
         <v>0</v>
@@ -4345,25 +4349,25 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="C82" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C82" s="16" t="s">
-        <v>293</v>
-      </c>
       <c r="D82" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
       <c r="H82" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J82" s="18">
         <v>7469</v>
@@ -4378,22 +4382,22 @@
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C83" s="16" t="s">
-        <v>295</v>
-      </c>
       <c r="D83" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J83" s="18">
         <v>1122</v>
@@ -4408,22 +4412,22 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="21"/>
       <c r="B84" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C84" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="D84" s="17" t="s">
         <v>297</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>298</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J84" s="18">
         <v>34664</v>
@@ -4437,25 +4441,25 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B85" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="C85" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="C85" s="16" t="s">
-        <v>301</v>
-      </c>
       <c r="D85" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J85" s="18">
         <v>866</v>
@@ -4470,22 +4474,22 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
       <c r="B86" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C86" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C86" s="16" t="s">
-        <v>303</v>
-      </c>
       <c r="D86" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J86" s="18">
         <v>0</v>
@@ -4499,25 +4503,25 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B87" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="C87" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C87" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="D87" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J87" s="18">
         <v>67</v>
@@ -4531,25 +4535,25 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="D88" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>310</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J88" s="12">
         <v>2085.9998999999998</v>
@@ -4561,25 +4565,25 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="B89" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="C89" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="D89" s="39" t="s">
         <v>313</v>
-      </c>
-      <c r="D89" s="39" t="s">
-        <v>314</v>
       </c>
       <c r="E89" s="39"/>
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
       <c r="H89" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I89" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J89" s="26">
         <v>3773</v>
@@ -4593,25 +4597,25 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B90" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="C90" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="D90" s="25" t="s">
         <v>317</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>318</v>
       </c>
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
       <c r="H90" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I90" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J90" s="26">
         <v>3356</v>
@@ -4626,22 +4630,22 @@
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="C91" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="D91" s="25" t="s">
         <v>320</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>321</v>
       </c>
       <c r="E91" s="25"/>
       <c r="F91" s="25"/>
       <c r="G91" s="25"/>
       <c r="H91" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I91" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J91" s="26">
         <v>13337</v>
@@ -4656,22 +4660,22 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C92" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="D92" s="25" t="s">
         <v>320</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>321</v>
       </c>
       <c r="E92" s="25"/>
       <c r="F92" s="25"/>
       <c r="G92" s="25"/>
       <c r="H92" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I92" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J92" s="26">
         <v>0</v>
@@ -4685,25 +4689,25 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B93" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B93" s="24" t="s">
+      <c r="C93" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="C93" s="24" t="s">
-        <v>325</v>
-      </c>
       <c r="D93" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E93" s="25"/>
       <c r="F93" s="25"/>
       <c r="G93" s="25"/>
       <c r="H93" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I93" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J93" s="26">
         <v>1152</v>
@@ -4718,22 +4722,22 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C94" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="C94" s="24" t="s">
-        <v>327</v>
-      </c>
       <c r="D94" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E94" s="25"/>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
       <c r="H94" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I94" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J94" s="26">
         <v>813</v>
@@ -4747,25 +4751,25 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B95" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="C95" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C95" s="24" t="s">
-        <v>330</v>
-      </c>
       <c r="D95" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E95" s="25"/>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
       <c r="H95" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J95" s="26">
         <v>14845.0002</v>
@@ -4779,25 +4783,25 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="B96" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="C96" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="C96" s="24" t="s">
-        <v>333</v>
-      </c>
       <c r="D96" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
       <c r="H96" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I96" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J96" s="26">
         <v>553</v>
@@ -4812,22 +4816,22 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C97" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="C97" s="24" t="s">
-        <v>335</v>
-      </c>
       <c r="D97" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
       <c r="H97" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I97" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J97" s="26">
         <v>5485</v>
@@ -4842,22 +4846,22 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="C98" s="24" t="s">
-        <v>337</v>
-      </c>
       <c r="D98" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E98" s="25"/>
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
       <c r="H98" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I98" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J98" s="26">
         <v>0</v>
@@ -4872,22 +4876,22 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="22"/>
       <c r="B99" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="C99" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="C99" s="24" t="s">
-        <v>339</v>
-      </c>
       <c r="D99" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E99" s="25"/>
       <c r="F99" s="25"/>
       <c r="G99" s="25"/>
       <c r="H99" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J99" s="26">
         <v>2469</v>
@@ -4901,25 +4905,25 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B100" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="C100" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="C100" s="31" t="s">
-        <v>342</v>
-      </c>
       <c r="D100" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="32"/>
       <c r="G100" s="32"/>
       <c r="H100" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I100" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J100" s="33">
         <v>1737</v>
@@ -4934,22 +4938,22 @@
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="22"/>
       <c r="B101" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="D101" s="25" t="s">
         <v>344</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>345</v>
       </c>
       <c r="E101" s="25"/>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
       <c r="H101" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I101" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J101" s="26">
         <v>4392</v>
@@ -4963,25 +4967,25 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B102" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="C102" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="C102" s="24" t="s">
-        <v>348</v>
-      </c>
       <c r="D102" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E102" s="25"/>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
       <c r="H102" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I102" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J102" s="26">
         <v>736</v>
@@ -4996,22 +5000,22 @@
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="22"/>
       <c r="B103" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C103" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="C103" s="24" t="s">
-        <v>350</v>
-      </c>
       <c r="D103" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
       <c r="H103" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I103" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J103" s="26">
         <v>513</v>
@@ -5025,16 +5029,16 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="B104" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="C104" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="C104" s="42" t="s">
+      <c r="D104" s="43" t="s">
         <v>353</v>
-      </c>
-      <c r="D104" s="43" t="s">
-        <v>354</v>
       </c>
       <c r="E104" s="43"/>
       <c r="F104" s="43"/>
@@ -5050,13 +5054,13 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B105" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B105" s="16" t="s">
-        <v>356</v>
-      </c>
       <c r="C105" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
@@ -5080,7 +5084,7 @@
       <c r="K109" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L105">
+  <autoFilter ref="A1:L105" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A4:J107">
       <sortCondition ref="D3:D107"/>
     </sortState>
